--- a/test_file_OutputFile.xlsx
+++ b/test_file_OutputFile.xlsx
@@ -1,65 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CP1\Documents\GitHub\Google-Risk-Checking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChiaChungLim\Desktop\Google-Risk-Checking\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E88A3B-24EC-4C82-8C8F-60B6ECEDBFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9480"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="85">
+  <si>
+    <t>Alert ID</t>
+  </si>
+  <si>
+    <t>Hit Name</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Entry-category</t>
+  </si>
+  <si>
+    <t>Entry-subcategory</t>
+  </si>
+  <si>
+    <t>Ent Id</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
   <si>
     <t>No.</t>
   </si>
   <si>
-    <t>Alert ID</t>
-  </si>
-  <si>
-    <t>Hit Name</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Entry-category</t>
-  </si>
-  <si>
-    <t>Entry-subcategory</t>
-  </si>
-  <si>
-    <t>Ent Id</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>Nguyen Phuong Thi</t>
   </si>
   <si>
+    <t>Mohamed Razali Mohamed Amin</t>
+  </si>
+  <si>
+    <t>Ang Kim Hock</t>
+  </si>
+  <si>
+    <t>Lim Keat Seong</t>
+  </si>
+  <si>
+    <t>Khairul Annuar Abdul Halim</t>
+  </si>
+  <si>
+    <t>Mohd Radzuan bin Abdul Halim</t>
+  </si>
+  <si>
+    <t>Muhammad Yahya bin Mohd Rashid</t>
+  </si>
+  <si>
+    <t>Kesavan a/l Subramaniam</t>
+  </si>
+  <si>
     <t>Vietnam</t>
   </si>
   <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
     <t>PEP</t>
   </si>
   <si>
+    <t>Adverse Media</t>
+  </si>
+  <si>
+    <t>Enforcement</t>
+  </si>
+  <si>
     <t>Family Member</t>
   </si>
   <si>
+    <t>Terrorism</t>
+  </si>
+  <si>
+    <t>Drug Trafficking</t>
+  </si>
+  <si>
+    <t>Diplomat</t>
+  </si>
+  <si>
+    <t>Govt Branch Member</t>
+  </si>
+  <si>
+    <t>Corruption</t>
+  </si>
+  <si>
     <t>https://www.theguardian.com/australia-news/2022/jun/09/money-transfer-business-that-was-part-of-exchange-rate-fixing-cartel-fined-1m</t>
   </si>
   <si>
+    <t>https://www.dailytelegraph.com.au/money-laundering-mastermind-jailed/news-story/999dbb39e5e64a04d513a0f2ed3e8cec</t>
+  </si>
+  <si>
     <t>https://www.itv.com/news/anglia/2022-09-05/international-gang-laundered-millions-through-nail-bars-and-students</t>
   </si>
   <si>
@@ -69,38 +118,170 @@
     <t>https://www.worldbank.org/en/projects-operations/procurement/debarred-firms</t>
   </si>
   <si>
+    <t>https://www.rfa.org/english/news/vietnam/uk-investigates-vietnamese-billionaires-funding-of-oxford-university-college-06172022014245.html</t>
+  </si>
+  <si>
     <t>https://www.intelligenceonline.com/international-dealmaking/2022/11/03/russian-vietnamese-firm-sovico-at-centre-of-pcv-anti-corruption-storm,109841360-art</t>
   </si>
   <si>
-    <t>https://www.rfa.org/english/news/vietnam/uk-investigates-vietnamese-billionaires-funding-of-oxford-university-college-06172022014245.html</t>
-  </si>
-  <si>
     <t>https://www.finra.org/rules-guidance/oversight-enforcement/individuals-barred-finra</t>
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/abs/pii/S1059056022001812</t>
   </si>
   <si>
-    <t>Mohamed Razali Mohamed Amin</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Adverse Media</t>
-  </si>
-  <si>
-    <t>Terrorism</t>
-  </si>
-  <si>
     <t>https://www.theedgemarkets.com/node/649945</t>
+  </si>
+  <si>
+    <t>https://www.malaysiakini.com/news/54931</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sauk_Siege</t>
+  </si>
+  <si>
+    <t>https://ideas.repec.org/s/eme/jfc000.html</t>
+  </si>
+  <si>
+    <t>https://www.nst.com.my/news/crime-courts/2018/10/424360/ex-malaysia-retail-chain-association-youth-chief-charged-money</t>
+  </si>
+  <si>
+    <t>https://www.bakermckenzie.com/en/people/a/ang-kim-hock</t>
+  </si>
+  <si>
+    <t>https://sg.linkedin.com/in/kim-hock-ang-04a73515</t>
+  </si>
+  <si>
+    <t>https://www.cpaaustralia.com.au/-/media/project/cpa/corporate/documents/tools-and-resources/ethics/cg-vol-9.pdf?rev=4c0465f421a04d9c9e25ed892db4f694&amp;download=true</t>
+  </si>
+  <si>
+    <t>https://www.legal500.com/firms/33467-rajah-tann-singapore-llp/30452-singapore-singapore/</t>
+  </si>
+  <si>
+    <t>https://law-society-singapore-prod.s3.ap-southeast-1.amazonaws.com/2020/10/Annual-Election-for-Council-2021-Senior-Category.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ilo.org/wcmsp5/groups/public/@ed_norm/@relconf/documents/meetingdocument/wcms_703542.pdf</t>
+  </si>
+  <si>
+    <t>https://www.legal500.fr/c/singapore/white-collar-crime-local-firms/</t>
+  </si>
+  <si>
+    <t>https://chambers.com/legal-rankings/corporate-investigations-anti-corruption-domestic-singapore-8:2883:188:1</t>
+  </si>
+  <si>
+    <t>https://www.nst.com.my/news/2016/09/170198/sungai-pinang-rep-spends-two-hours-macc-over-funds-low-cost-housing-case</t>
+  </si>
+  <si>
+    <t>https://www.worldbank.org/content/dam/meetings/external/springmeeting/Participant-List.pdf</t>
+  </si>
+  <si>
+    <t>https://www.archives.gov/chicago/finding-aids/chinese-files-chicago.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com.my/news/nation/2013/08/14/arbitrators-rm6mil-bribery-case-transferred-to-kl/</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com.my/news/nation/2013/10/30/court-money-laundering-rm8mil</t>
+  </si>
+  <si>
+    <t>https://my.linkedin.com/in/khairul-annuar-abdul-halim-291b2796</t>
+  </si>
+  <si>
+    <t>https://www.astroawani.com/topic/khairul-annuar-abdul-halim</t>
+  </si>
+  <si>
+    <t>https://www.nst.com.my/news/crime-courts/2021/09/731862/ahmad-maslan-acquitted-money-laundering-charge</t>
+  </si>
+  <si>
+    <t>https://twitter.com/kannuar1?lang=en</t>
+  </si>
+  <si>
+    <t>https://www.state.gov/wp-content/uploads/2020/05/Diplomatic-Book-Spring-2020.pdf</t>
+  </si>
+  <si>
+    <t>https://penangbar.org/wp-content/uploads/2020/12/criminal-2020-12.pdf</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/khairul.a.halim/</t>
+  </si>
+  <si>
+    <t>https://www.unodc.org/documents/congress//01_Statements_HLS/8Mar/Malaysia.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sprm.gov.my/admin/uploads_publication/1st-macc-law-enforcement-accredited-programme-convocation-2022--my-07092022.pdf</t>
+  </si>
+  <si>
+    <t>https://islamicmarkets.com/publications/bank-muamalat-malaysia-berhad-annual-report-2019</t>
+  </si>
+  <si>
+    <t>http://experts.uum.edu.my/Researcher_Info.aspx?nopkj=3379</t>
+  </si>
+  <si>
+    <t>https://ukmsarjana.ukm.my/main/lihat_geran</t>
+  </si>
+  <si>
+    <t>https://handalenergy.com/wp-content/uploads/2018/11/Handal-Resources-Berhad-AR2014.pdf</t>
+  </si>
+  <si>
+    <t>https://ir.uitm.edu.my/view/divisions/lw/2011.html</t>
+  </si>
+  <si>
+    <t>http://utpedia.utp.edu.my/view/subjects/T1.html</t>
+  </si>
+  <si>
+    <t>https://www.treasury.gov/ofac/downloads/sdnlist.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sprm.gov.my/index.php?r=site%2Findex&amp;page_id=96&amp;language=en&amp;page=13&amp;per-page=8</t>
+  </si>
+  <si>
+    <t>https://www.govinfo.gov/app/details/USCOURTS-ca2-11-03503</t>
+  </si>
+  <si>
+    <t>https://www.bnm.gov.my/documents/20124/6458991/ar2021_en_book.pdf</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1135195/ISIL__Da_esh__and_Al-Qaida.pdf</t>
+  </si>
+  <si>
+    <t>https://www.un.org/french/sc/committees/consolidated.htm</t>
+  </si>
+  <si>
+    <t>https://direktori.agc.gov.my/agcstaff/frontend/web/index.php?r=portal/full&amp;menu=TXRnT3RGSitXbHRXQUhNd25pRlhLUT09</t>
+  </si>
+  <si>
+    <t>https://books.google.com.my/books?id=PJRzCQAAQBAJ&amp;pg=PA274&amp;lpg=PA274&amp;dq=Muhammad+Yahya+bin+Mohd+Rashid+AND+(~crime+OR+~corruption+OR+~money+laundering+OR+~bribe)&amp;source=bl&amp;ots=n2Em04qnix&amp;sig=ACfU3U2HvUeRSc86gQ4EHA9K5Qr7m-kGjA&amp;hl=en&amp;sa=X&amp;ved=2ahUKEwjgxMrDna39AhUIIbcAHVFUDi4Q6AF6BAgyEAM</t>
+  </si>
+  <si>
+    <t>https://www.unodc.org/documents/congress/Documentation/Final_LoP_rev2_V1502955.pdf</t>
+  </si>
+  <si>
+    <t>https://www.nst.com.my/news/crime-courts/2022/12/863476/lawyer-questions-macc-officers-ethics-shahrirs-money-laundering</t>
+  </si>
+  <si>
+    <t>http://download.dionglobal.in/admin/Reports/DRHP260720211.PDF</t>
+  </si>
+  <si>
+    <t>https://amlcft.bnm.gov.my/reporting-to-bnm#:~:text=Section%2014A%20of%20the%20AMLA,five%20year%20or%20to%20both.</t>
+  </si>
+  <si>
+    <t>https://www.bsp.gov.ph/Regulations/Banking%20Laws/RA9194_IRR.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bnm.gov.my/-/enforcement-action-illegal-msb-06122019#:~:text=Under%20the%20AMLA%2C%20any%20person,million%2C%20whichever%20is%20the%20higher.</t>
+  </si>
+  <si>
+    <t>https://yhalaw.com.my/money-laundering-amlatfpuaa-2001-real-estate-legal-profession/#:~:text=Pursuant%20to%20Section%204%20of,of%20an%20unlawful%20activity%20or</t>
+  </si>
+  <si>
+    <t>Screenshot Path</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,7 +292,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,17 +336,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -214,7 +425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +457,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,6 +509,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,42 +702,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -501,24 +754,24 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>10716651</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>802048</v>
@@ -527,24 +780,24 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>10716651</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>802048</v>
@@ -553,24 +806,24 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>10716651</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>802048</v>
@@ -579,24 +832,24 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>10716651</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>802048</v>
@@ -605,24 +858,24 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>10716651</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>802048</v>
@@ -631,24 +884,24 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G7">
         <v>10716651</v>
       </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>802048</v>
@@ -657,24 +910,24 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G8">
         <v>10716651</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>802048</v>
@@ -683,48 +936,1598 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>10716651</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>802048</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>10716651</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>802049</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>7759185</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>802049</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>7759185</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>802049</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>7759185</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>802049</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>7759185</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>802050</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>7759185</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>802050</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>7759185</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>802050</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>7759185</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>802050</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>7759185</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>802051</v>
+      </c>
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>802049</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>7494796</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>802051</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>7494796</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>802051</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <v>7494796</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B22">
+        <v>802051</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22">
+        <v>7494796</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="B23">
+        <v>802051</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="G10">
+      <c r="G23">
+        <v>7494796</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>802051</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>7494796</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>802051</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>7494796</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>802051</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>7494796</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>802051</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27">
+        <v>7494796</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>802052</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>7546185</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>802052</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>7546185</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>802052</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30">
+        <v>7546185</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>802053</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31">
         <v>7759185</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>802053</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32">
+        <v>7759185</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>802053</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33">
+        <v>7759185</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>802053</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34">
+        <v>7759185</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>802054</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
         <v>24</v>
       </c>
+      <c r="G35">
+        <v>285890</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>802054</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>285890</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>802054</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>285890</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>802054</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38">
+        <v>285890</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>802054</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39">
+        <v>285890</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>802054</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40">
+        <v>285890</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>802054</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41">
+        <v>285890</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>802054</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42">
+        <v>285890</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>802054</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>285890</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>802054</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44">
+        <v>7576363</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>802054</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45">
+        <v>7576363</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>802054</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46">
+        <v>7576363</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>802054</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47">
+        <v>7576363</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>802054</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48">
+        <v>7576363</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>802054</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49">
+        <v>7576363</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>802054</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50">
+        <v>7576363</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>802054</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51">
+        <v>7576363</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>802055</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52">
+        <v>11950847</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>802055</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53">
+        <v>11950847</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>802055</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54">
+        <v>11950847</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>802055</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55">
+        <v>11950847</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>802055</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56">
+        <v>11950847</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>802055</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57">
+        <v>11950847</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>802055</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58">
+        <v>11950847</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>802055</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59">
+        <v>11950847</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>802055</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60">
+        <v>11950847</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>802055</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61">
+        <v>11950847</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>802056</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62">
+        <v>1915358</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>802056</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63">
+        <v>1915358</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>802056</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64">
+        <v>1915358</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>802056</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65">
+        <v>1915358</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>802056</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66">
+        <v>1915358</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>802056</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67">
+        <v>1915358</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="H51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="H54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="H55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H64" r:id="rId63" location=":~:text=Section%2014A%20of%20the%20AMLA,five%20year%20or%20to%20both." xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H66" r:id="rId65" location=":~:text=Under%20the%20AMLA%2C%20any%20person,million%2C%20whichever%20is%20the%20higher." xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H67" r:id="rId66" location=":~:text=Pursuant%20to%20Section%204%20of,of%20an%20unlawful%20activity%20or" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_file_OutputFile.xlsx
+++ b/test_file_OutputFile.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChiaChungLim\Desktop\Google-Risk-Checking\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E88A3B-24EC-4C82-8C8F-60B6ECEDBFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="83">
   <si>
     <t>Alert ID</t>
   </si>
@@ -118,12 +112,12 @@
     <t>https://www.worldbank.org/en/projects-operations/procurement/debarred-firms</t>
   </si>
   <si>
+    <t>https://www.intelligenceonline.com/international-dealmaking/2022/11/03/russian-vietnamese-firm-sovico-at-centre-of-pcv-anti-corruption-storm,109841360-art</t>
+  </si>
+  <si>
     <t>https://www.rfa.org/english/news/vietnam/uk-investigates-vietnamese-billionaires-funding-of-oxford-university-college-06172022014245.html</t>
   </si>
   <si>
-    <t>https://www.intelligenceonline.com/international-dealmaking/2022/11/03/russian-vietnamese-firm-sovico-at-centre-of-pcv-anti-corruption-storm,109841360-art</t>
-  </si>
-  <si>
     <t>https://www.finra.org/rules-guidance/oversight-enforcement/individuals-barred-finra</t>
   </si>
   <si>
@@ -133,15 +127,21 @@
     <t>https://www.theedgemarkets.com/node/649945</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Sauk_Siege</t>
+  </si>
+  <si>
     <t>https://www.malaysiakini.com/news/54931</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Sauk_Siege</t>
+    <t>https://my.linkedin.com/in/razali-mohd-razali-mohamed-amin-808611a7</t>
   </si>
   <si>
     <t>https://ideas.repec.org/s/eme/jfc000.html</t>
   </si>
   <si>
+    <t>http://kllibrary.dbkl.gov.my/client/en_US/pkl/search/results.displaypanel.resultstoolbar.pagination.selectpage:handlepagingviasearchsession/19?qu=Sazali&amp;rw=216&amp;ic=true&amp;isd=true</t>
+  </si>
+  <si>
     <t>https://www.nst.com.my/news/crime-courts/2018/10/424360/ex-malaysia-retail-chain-association-youth-chief-charged-money</t>
   </si>
   <si>
@@ -151,6 +151,9 @@
     <t>https://sg.linkedin.com/in/kim-hock-ang-04a73515</t>
   </si>
   <si>
+    <t>https://wiki.sg/p/David_Rasif</t>
+  </si>
+  <si>
     <t>https://www.cpaaustralia.com.au/-/media/project/cpa/corporate/documents/tools-and-resources/ethics/cg-vol-9.pdf?rev=4c0465f421a04d9c9e25ed892db4f694&amp;download=true</t>
   </si>
   <si>
@@ -166,12 +169,12 @@
     <t>https://www.legal500.fr/c/singapore/white-collar-crime-local-firms/</t>
   </si>
   <si>
-    <t>https://chambers.com/legal-rankings/corporate-investigations-anti-corruption-domestic-singapore-8:2883:188:1</t>
-  </si>
-  <si>
     <t>https://www.nst.com.my/news/2016/09/170198/sungai-pinang-rep-spends-two-hours-macc-over-funds-low-cost-housing-case</t>
   </si>
   <si>
+    <t>https://www.thesundaily.my/archive/1959116-CSARCH392186</t>
+  </si>
+  <si>
     <t>https://www.worldbank.org/content/dam/meetings/external/springmeeting/Participant-List.pdf</t>
   </si>
   <si>
@@ -202,7 +205,7 @@
     <t>https://penangbar.org/wp-content/uploads/2020/12/criminal-2020-12.pdf</t>
   </si>
   <si>
-    <t>https://www.facebook.com/khairul.a.halim/</t>
+    <t>https://en.wikipedia.org/wiki/Abdul_Azeez_Abdul_Rahim</t>
   </si>
   <si>
     <t>https://www.unodc.org/documents/congress//01_Statements_HLS/8Mar/Malaysia.pdf</t>
@@ -211,12 +214,12 @@
     <t>https://www.sprm.gov.my/admin/uploads_publication/1st-macc-law-enforcement-accredited-programme-convocation-2022--my-07092022.pdf</t>
   </si>
   <si>
+    <t>http://experts.uum.edu.my/Researcher_Info.aspx?nopkj=3379</t>
+  </si>
+  <si>
     <t>https://islamicmarkets.com/publications/bank-muamalat-malaysia-berhad-annual-report-2019</t>
   </si>
   <si>
-    <t>http://experts.uum.edu.my/Researcher_Info.aspx?nopkj=3379</t>
-  </si>
-  <si>
     <t>https://ukmsarjana.ukm.my/main/lihat_geran</t>
   </si>
   <si>
@@ -232,56 +235,41 @@
     <t>https://www.treasury.gov/ofac/downloads/sdnlist.pdf</t>
   </si>
   <si>
+    <t>https://www.govinfo.gov/app/details/USCOURTS-ca2-11-03503</t>
+  </si>
+  <si>
     <t>https://www.sprm.gov.my/index.php?r=site%2Findex&amp;page_id=96&amp;language=en&amp;page=13&amp;per-page=8</t>
   </si>
   <si>
-    <t>https://www.govinfo.gov/app/details/USCOURTS-ca2-11-03503</t>
-  </si>
-  <si>
     <t>https://www.bnm.gov.my/documents/20124/6458991/ar2021_en_book.pdf</t>
   </si>
   <si>
+    <t>https://www.un.org/french/sc/committees/consolidated.htm</t>
+  </si>
+  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1135195/ISIL__Da_esh__and_Al-Qaida.pdf</t>
   </si>
   <si>
-    <t>https://www.un.org/french/sc/committees/consolidated.htm</t>
+    <t>https://books.google.com.my/books?id=PJRzCQAAQBAJ&amp;pg=PA274&amp;lpg=PA274&amp;dq=Muhammad+Yahya+bin+Mohd+Rashid+AND+(~crime+OR+~corruption+OR+~money+laundering+OR+~bribe)&amp;source=bl&amp;ots=n2Em2amkiu&amp;sig=ACfU3U0fJSQdk3GM0qKGSe9PLLD8vfn4dA&amp;hl=en&amp;sa=X&amp;ved=2ahUKEwjKh5KJ1rT9AhX-XmwGHThvCQcQ6AF6BAgCEAM</t>
   </si>
   <si>
     <t>https://direktori.agc.gov.my/agcstaff/frontend/web/index.php?r=portal/full&amp;menu=TXRnT3RGSitXbHRXQUhNd25pRlhLUT09</t>
   </si>
   <si>
-    <t>https://books.google.com.my/books?id=PJRzCQAAQBAJ&amp;pg=PA274&amp;lpg=PA274&amp;dq=Muhammad+Yahya+bin+Mohd+Rashid+AND+(~crime+OR+~corruption+OR+~money+laundering+OR+~bribe)&amp;source=bl&amp;ots=n2Em04qnix&amp;sig=ACfU3U2HvUeRSc86gQ4EHA9K5Qr7m-kGjA&amp;hl=en&amp;sa=X&amp;ved=2ahUKEwjgxMrDna39AhUIIbcAHVFUDi4Q6AF6BAgyEAM</t>
-  </si>
-  <si>
-    <t>https://www.unodc.org/documents/congress/Documentation/Final_LoP_rev2_V1502955.pdf</t>
+    <t>https://www.ukm.my/cmcl/publications/</t>
   </si>
   <si>
     <t>https://www.nst.com.my/news/crime-courts/2022/12/863476/lawyer-questions-macc-officers-ethics-shahrirs-money-laundering</t>
   </si>
   <si>
-    <t>http://download.dionglobal.in/admin/Reports/DRHP260720211.PDF</t>
-  </si>
-  <si>
-    <t>https://amlcft.bnm.gov.my/reporting-to-bnm#:~:text=Section%2014A%20of%20the%20AMLA,five%20year%20or%20to%20both.</t>
-  </si>
-  <si>
-    <t>https://www.bsp.gov.ph/Regulations/Banking%20Laws/RA9194_IRR.pdf</t>
-  </si>
-  <si>
-    <t>https://www.bnm.gov.my/-/enforcement-action-illegal-msb-06122019#:~:text=Under%20the%20AMLA%2C%20any%20person,million%2C%20whichever%20is%20the%20higher.</t>
-  </si>
-  <si>
-    <t>https://yhalaw.com.my/money-laundering-amlatfpuaa-2001-real-estate-legal-profession/#:~:text=Pursuant%20to%20Section%204%20of,of%20an%20unlawful%20activity%20or</t>
-  </si>
-  <si>
-    <t>Screenshot Path</t>
+    <t>https://www.fatf-gafi.org/en/topics/corruption.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,7 +301,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -336,17 +324,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -355,15 +332,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -371,14 +345,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -425,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,27 +423,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,24 +457,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,19 +632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -739,11 +664,8 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -769,7 +691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -795,7 +717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -821,7 +743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -847,7 +769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -873,7 +795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -899,7 +821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -925,7 +847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -951,7 +873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -977,7 +899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1003,7 +925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1029,7 +951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1055,7 +977,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1081,12 +1003,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>802050</v>
+        <v>802049</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1104,15 +1026,15 @@
         <v>7759185</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>802050</v>
+        <v>802049</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1130,10 +1052,10 @@
         <v>7759185</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1156,10 +1078,10 @@
         <v>7759185</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1182,114 +1104,114 @@
         <v>7759185</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>802051</v>
+        <v>802050</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19">
-        <v>7494796</v>
+        <v>7759185</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>802051</v>
+        <v>802050</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20">
-        <v>7494796</v>
+        <v>7759185</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>802051</v>
+        <v>802050</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21">
-        <v>7494796</v>
+        <v>7759185</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>802051</v>
+        <v>802050</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22">
-        <v>7494796</v>
+        <v>7759185</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1312,10 +1234,10 @@
         <v>7494796</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1338,10 +1260,10 @@
         <v>7494796</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1364,10 +1286,10 @@
         <v>7494796</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1390,10 +1312,10 @@
         <v>7494796</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1416,200 +1338,200 @@
         <v>7494796</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>802052</v>
+        <v>802051</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G28">
-        <v>7546185</v>
+        <v>7494796</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>802052</v>
+        <v>802051</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G29">
-        <v>7546185</v>
+        <v>7494796</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>802052</v>
+        <v>802051</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G30">
-        <v>7546185</v>
+        <v>7494796</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>802053</v>
+        <v>802051</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G31">
-        <v>7759185</v>
+        <v>7494796</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>802053</v>
+        <v>802052</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32">
-        <v>7759185</v>
+        <v>7546185</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>802053</v>
+        <v>802052</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33">
-        <v>7759185</v>
+        <v>7546185</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>802053</v>
+        <v>802052</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34">
-        <v>7759185</v>
+        <v>7546185</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>802054</v>
+        <v>802052</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -1618,172 +1540,172 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G35">
-        <v>285890</v>
+        <v>7546185</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>802054</v>
+        <v>802053</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G36">
-        <v>285890</v>
+        <v>7759185</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>802054</v>
+        <v>802053</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G37">
-        <v>285890</v>
+        <v>7759185</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>802054</v>
+        <v>802053</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G38">
-        <v>285890</v>
+        <v>7759185</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>802054</v>
+        <v>802053</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G39">
-        <v>285890</v>
+        <v>7759185</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>802054</v>
+        <v>802053</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G40">
-        <v>285890</v>
+        <v>7759185</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>802054</v>
+        <v>802053</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G41">
-        <v>285890</v>
+        <v>7759185</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1806,10 +1728,10 @@
         <v>285890</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1832,10 +1754,10 @@
         <v>285890</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1843,7 +1765,7 @@
         <v>802054</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -1852,16 +1774,16 @@
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44">
-        <v>7576363</v>
+        <v>285890</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1869,7 +1791,7 @@
         <v>802054</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -1878,16 +1800,16 @@
         <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G45">
-        <v>7576363</v>
+        <v>285890</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1895,7 +1817,7 @@
         <v>802054</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -1904,16 +1826,16 @@
         <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G46">
-        <v>7576363</v>
+        <v>285890</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1921,7 +1843,7 @@
         <v>802054</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -1930,16 +1852,16 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G47">
-        <v>7576363</v>
+        <v>285890</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1947,7 +1869,7 @@
         <v>802054</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -1956,16 +1878,16 @@
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G48">
-        <v>7576363</v>
+        <v>285890</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1973,7 +1895,7 @@
         <v>802054</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -1982,16 +1904,16 @@
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G49">
-        <v>7576363</v>
+        <v>285890</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1999,7 +1921,7 @@
         <v>802054</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -2008,16 +1930,16 @@
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G50">
-        <v>7576363</v>
+        <v>285890</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2040,192 +1962,192 @@
         <v>7576363</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>802055</v>
+        <v>802054</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52">
-        <v>11950847</v>
+        <v>7576363</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>802055</v>
+        <v>802054</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G53">
-        <v>11950847</v>
+        <v>7576363</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>802055</v>
+        <v>802054</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G54">
-        <v>11950847</v>
+        <v>7576363</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>802055</v>
+        <v>802054</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G55">
-        <v>11950847</v>
+        <v>7576363</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>802055</v>
+        <v>802054</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G56">
-        <v>11950847</v>
+        <v>7576363</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>802055</v>
+        <v>802054</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G57">
-        <v>11950847</v>
+        <v>7576363</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>802055</v>
+        <v>802054</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G58">
-        <v>11950847</v>
+        <v>7576363</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2248,10 +2170,10 @@
         <v>11950847</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2274,10 +2196,10 @@
         <v>11950847</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2300,233 +2222,314 @@
         <v>11950847</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>802056</v>
+        <v>802055</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G62">
-        <v>1915358</v>
+        <v>11950847</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>802056</v>
+        <v>802055</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G63">
-        <v>1915358</v>
+        <v>11950847</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>802056</v>
+        <v>802055</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G64">
-        <v>1915358</v>
+        <v>11950847</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>802056</v>
+        <v>802055</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G65">
-        <v>1915358</v>
+        <v>11950847</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>802056</v>
+        <v>802055</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G66">
-        <v>1915358</v>
+        <v>11950847</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67">
+        <v>802055</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67">
+        <v>11950847</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>802055</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68">
+        <v>11950847</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
         <v>802056</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>15</v>
       </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s">
         <v>25</v>
       </c>
-      <c r="G67">
+      <c r="G69">
         <v>1915358</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>83</v>
+      <c r="H69" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>802056</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70">
+        <v>1915358</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="H34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="H43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="H46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="H48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="H50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="H51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="H52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="H53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="H54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="H55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="H56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H64" r:id="rId63" location=":~:text=Section%2014A%20of%20the%20AMLA,five%20year%20or%20to%20both." xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H66" r:id="rId65" location=":~:text=Under%20the%20AMLA%2C%20any%20person,million%2C%20whichever%20is%20the%20higher." xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H67" r:id="rId66" location=":~:text=Pursuant%20to%20Section%204%20of,of%20an%20unlawful%20activity%20or" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H17" r:id="rId16"/>
+    <hyperlink ref="H18" r:id="rId17"/>
+    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H21" r:id="rId20"/>
+    <hyperlink ref="H22" r:id="rId21"/>
+    <hyperlink ref="H23" r:id="rId22"/>
+    <hyperlink ref="H24" r:id="rId23"/>
+    <hyperlink ref="H25" r:id="rId24"/>
+    <hyperlink ref="H26" r:id="rId25"/>
+    <hyperlink ref="H27" r:id="rId26"/>
+    <hyperlink ref="H28" r:id="rId27"/>
+    <hyperlink ref="H29" r:id="rId28"/>
+    <hyperlink ref="H30" r:id="rId29"/>
+    <hyperlink ref="H31" r:id="rId30"/>
+    <hyperlink ref="H32" r:id="rId31"/>
+    <hyperlink ref="H33" r:id="rId32"/>
+    <hyperlink ref="H34" r:id="rId33"/>
+    <hyperlink ref="H35" r:id="rId34"/>
+    <hyperlink ref="H36" r:id="rId35"/>
+    <hyperlink ref="H37" r:id="rId36"/>
+    <hyperlink ref="H38" r:id="rId37"/>
+    <hyperlink ref="H39" r:id="rId38"/>
+    <hyperlink ref="H40" r:id="rId39"/>
+    <hyperlink ref="H41" r:id="rId40"/>
+    <hyperlink ref="H42" r:id="rId41"/>
+    <hyperlink ref="H43" r:id="rId42"/>
+    <hyperlink ref="H44" r:id="rId43"/>
+    <hyperlink ref="H45" r:id="rId44"/>
+    <hyperlink ref="H46" r:id="rId45"/>
+    <hyperlink ref="H47" r:id="rId46"/>
+    <hyperlink ref="H48" r:id="rId47"/>
+    <hyperlink ref="H49" r:id="rId48"/>
+    <hyperlink ref="H50" r:id="rId49"/>
+    <hyperlink ref="H51" r:id="rId50"/>
+    <hyperlink ref="H52" r:id="rId51"/>
+    <hyperlink ref="H53" r:id="rId52"/>
+    <hyperlink ref="H54" r:id="rId53"/>
+    <hyperlink ref="H55" r:id="rId54"/>
+    <hyperlink ref="H56" r:id="rId55"/>
+    <hyperlink ref="H57" r:id="rId56"/>
+    <hyperlink ref="H58" r:id="rId57"/>
+    <hyperlink ref="H59" r:id="rId58"/>
+    <hyperlink ref="H60" r:id="rId59"/>
+    <hyperlink ref="H61" r:id="rId60"/>
+    <hyperlink ref="H62" r:id="rId61"/>
+    <hyperlink ref="H63" r:id="rId62"/>
+    <hyperlink ref="H64" r:id="rId63"/>
+    <hyperlink ref="H65" r:id="rId64"/>
+    <hyperlink ref="H66" r:id="rId65"/>
+    <hyperlink ref="H67" r:id="rId66"/>
+    <hyperlink ref="H68" r:id="rId67"/>
+    <hyperlink ref="H69" r:id="rId68"/>
+    <hyperlink ref="H70" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
